--- a/data/Bohol_Weather_Tourist.xlsx
+++ b/data/Bohol_Weather_Tourist.xlsx
@@ -1794,7 +1794,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
